--- a/TestData/hello.xlsx
+++ b/TestData/hello.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>Hello..</t>
-  </si>
-  <si>
-    <t>Geeks</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,20 +47,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -180,7 +235,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,25 +408,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hello..</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Geeks</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>For</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Geeks</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17176650</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>osman</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/TestData/hello.xlsx
+++ b/TestData/hello.xlsx
@@ -17,13 +17,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,14 +50,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -454,27 +468,74 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="85" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>osmansah</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17317460</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
         <is>
           <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17176650</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>osman</t>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17303833</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17209285</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17295955</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>https://asunnot.oikotie.fi/myytavat-asunnot/helsinki/17288754</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>